--- a/converted-data/excel/futbolki_page_02.xlsx
+++ b/converted-data/excel/futbolki_page_02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Так! Друкуємо на якісних бавовняних футболках.
+          <t>✅ Так! Друкуємо на якісних бавовняних футболках.
 💰 1 шт — від 550 грн, 💰 5 шт — від 390 грн за штуку.
 Футболки є чоловічі та жіночі, білі та чорні
 ⚡ Готові за 2-3 дні.
@@ -500,7 +500,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Да! Печатаем на качественных хлопковых футболках.
+          <t>✅ Да! Печатаем на качественных хлопковых футболках.
 💰 1 шт — от 550 грн, 💰 5 шт — от 390 грн за штуку.
 Футболки есть мужские и женские, белые и черные.
 ⚡ Готовы за 2-3 дня.
@@ -566,14 +566,14 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>Ми використовуємо класичні бавовняні 👕 футболки прямого крою (чоловічі-унісекс), та приталені (жіночі).
-Бренд B&amp;C (покращена якість) та Froot Of Loom (звичайні).
+Бренд B&amp;C (покращена якість) та Fruit of the Loom (звичайні).
 Стандартна щільність тканини 150г/м2.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Мы используем классические хлопковые футболки прямого кроя (мужские-унисекс), и приталенные (женские).
-Бренд B&amp;C (улучшенное качество) и Froot Of Loom (обычные).
+          <t>Мы используем классические хлопковые 👕 футболки прямого кроя (мужские-унисекс), и приталенные (женские).
+Бренд B&amp;C (улучшенное качество) и Fruit of the Loom (обычные).
 Стандартная плотность ткани 150г/м2.</t>
         </is>
       </c>
@@ -672,9 +672,9 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Так! Повнокольоровий друк - уся палітра кольорів!
+          <t>Так! Повнокольоровий друк — уся палітра кольорів!
 Принт виходить яскравим і стійким до прання.
-Темні і світлі футболки - обидва варіанти відмінно!
+Темні і світлі футболки — обидва варіанти відмінно!
 Розмір принта від 📄 А6 до А3 формату, будь-якої ⭕ форми - круглий, квадратний, овальний.</t>
         </is>
       </c>
@@ -683,7 +683,7 @@
           <t>Да! Полноцветная печать — вся палитра цветов!
 Принт получается ярким и стойким к стирке.
 Темные и светлые футболки — оба варианта отлично!
-Размер принта від 📄 А6 до А3 формату, любой ⭕ формы - круглый, квадратный, овальный.</t>
+Размер принта от 📄 А6 до А3 формата, любой ⭕ формы - круглый, квадратный, овальный.</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -711,12 +711,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Стандартно від 3 робочих днів. Видача в 🏢 офісі у центрі Харкова з 10:00 до 17:00 або відправка 📦 Новою поштою по Україні</t>
+          <t>⚡ Стандартно від 3 робочих днів.
+Видача в 🏢 офісі у центрі Харкова з 10:00 до 17:00 або відправка 📦 Новою поштою по Україні</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Стандартно от 3 рабочих дней. Выдача в 🏢 офисе в центре Харькова с 10:00 до 17:00 или отправка 📦 Новой почтой по Украине</t>
+          <t>⚡ Стандартно от 3 рабочих дней.
+Выдача в 🏢 офисе в центре Харькова с 10:00 до 17:00 или отправка 📦 Новой почтой по Украине</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -771,28 +773,441 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>🏭 Корпоративные заказы</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>корпоративный заказ,много футболок,компания,команда</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>🏭 Корпоративні замовлення — наша спеціалізація!
+👔 Для команд, компаній, заходів
+📊 Від 10 шт — знижка 15%, від 50 шт — знижка від 20%
+🎨 Можливо нанесення логотипа компанії
+⚡ Термін виконання 5-7 робочих днів
+💼 Надаємо кошторис та зразок для погодження
+Зробимо вашу команду стильною і згуртованою!</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>🏭 Корпоративные заказы — наша специализация!
+👔 Для команд, компаний, мероприятий
+📊 От 10 шт — скидка 15%, от 50 шт — скидка от 20%
+🎨 Возможно нанесение логотипа компании
+⚡ Срок выполнения 5-7 рабочих дней
+💼 Предоставляем смету и образец для согласования
+Сделаем вашу команду стильной и сплоченной!</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>🎯 DTF или пленка Flex?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DTF,пленка,flex,технология печати</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>🎯 Використовуємо дві технології:
+💎 DTF — повнокольоровий друк, фотографії, складні зображення
+📐 Пленка Flex — для простих логотипів, тексту (1-3 кольори)
+🛡️ Обидві технології супер-стійкі до прання та глажки
+✨ DTF дає найкращу якість для складних принтів
+Підберемо оптимальну технологію під ваш макет!</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>🎯 Используем две технологии:
+💎 DTF — полноцветная печать, фотографии, сложные изображения
+📐 Пленка Flex — для простых логотипов, текста (1-3 цвета)
+🛡️ Обе технологии супер-стойки к стирке и глажке
+✨ DTF дает лучшее качество для сложных принтов
+Подберем оптимальную технологию под ваш макет!</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>👕 B&amp;C или Fruit Of The Loom?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>B&amp;C,Fruit,качество,производитель,ткань</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>👕 Два типи футболок на вибір:
+🌟 B&amp;C — преміум якість (бавовна 90%, віскоза 10%)
+📈 Доплата +15 грн/шт, але якість відчутно краща
+🔄 Fruit Of The Loom — стандартна якість (100% бавовна)
+💪 Обидва варіанти щільність 150г/м²
+🎨 Однакова якість друку на обох типах
+✅ Гарантуємо відмінний результат незалежно від вибору!</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>👕 Два типа футболок на выбор:
+🌟 B&amp;C — премиум качество (хлопок 90%, вискоза 10%)
+📈 Доплата +15 грн/шт, но качество заметно лучше
+🔄 Fruit Of The Loom — стандартное качество (100% хлопок)
+💪 Оба варианта плотность 150г/м²
+🎨 Одинаковое качество печати на обоих типах
+✅ Гарантируем отличный результат независимо от выбора!</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>📍 Размещение принта</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>размещение,где принт,грудь,спина,рукав</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>📍 Розміщуємо принт де завгодно!
+💻 Спереду на грудях — класика (формат А4-А5)
+🎒 Ззаду на спині — великі принти (до А3)
+🤏 Маленький логотип — ліворуч на грудях
+👕 На рукавах — компактні елементи
+🔄 Можна комбінувати декілька зон
+📏 Розмір принта обираєте ви — від 5×5см до А3
+Покажіть макет — підкажемо найкраще розміщення!</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>📍 Размещаем принт где угодно!
+💻 Спереди на груди — классика (формат А4-А5)
+🎒 Сзади на спине — большие принты (до А3)
+🤏 Маленький логотип — слева на груди
+👕 На рукавах — компактные элементы
+🔄 Можно комбинировать несколько зон
+📏 Размер принта выбираете вы — от 5×5см до А3
+Покажите макет — подскажем лучшее размещение!</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>🌡️ Уход за принтом</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>стирка,глажка,уход,как стирать</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>🌡️ Догляд за принтом — просто!
+🧺 Можна прати в машинці до 40°C
+🔄 Виворітне прання захистить принт
+🔥 Можна прасувати через тканину
+❌ Не варто використовувати хлорвмісні засоби
+✨ При правильному догляді принт служить роками
+💡 Перше прання можна зробити окремо (але краска не ліняє)
+Наші принти справді витривалі!</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>🌡️ Уход за принтом — просто!
+🧺 Можно стирать в машинке до 40°C
+🔄 Выворотная стирка защитит принт
+🔥 Можно гладить через ткань
+❌ Не стоит использовать хлорсодержащие средства
+✨ При правильном уходе принт служит годами
+💡 Первую стирку можно сделать отдельно, но краска не линяет
+Наши принты действительно выносливы!</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>👨👩 Мужские и женские модели</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>мужские,женские,унисекс,крой,приталенные</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>👨👩 Маємо моделі для всіх!
+👔 Чоловічі (унісекс) — прямий крой, класичний фасон
+👗 Жіночі — приталений крій, підкреслює фігуру
+📏 Розміри від XS до 4XL
+⚫ Кольори: білі та чорні в наявності
+🎨 Принт однаково добре виглядає на всіх моделях
+💡 Жіночі футболки трохи коротші за довжиною
+Оберіть комфортний фасон для себе!</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>👨👩 Есть модели для всех!
+👔 Мужские (унисекс) — прямой крой, классический фасон
+👗 Женские — приталенный крой, подчеркивает фигуру
+📏 Размеры от XS до 4XL
+⚫ Цвета: белые и черные в наличии
+🎨 Принт одинаково хорошо выглядит на всех моделях
+💡 Женские футболки немного короче по длине
+Выберите комфортный фасон для себя!</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>🚚 Доставка футболок</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>доставка,курьер,новая почта,самовывоз</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>🚚 Доставляємо футболки по всій Україні!
+📦 Нова Пошта — від 75 грн, 1-2 дні
+🚕 Таксі по Харкову — 150 грн, у день готовності
+🏪 Самовивіз — безкоштовно, Харків, вул. Чернишевська, 8
+👕 Упаковуємо в індивідуальні пакети
+💡 Великі замовлення — спеціальна упаковка
+При замовленні від 1500 грн доставка НП безкоштовна.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>🚚 Доставляем футболки по всей Украине!
+📦 Новая Почта — от 75 грн, 1-2 дня
+🚕 Такси по Харькову — 150 грн, в день готовности
+🏪 Самовывоз — бесплатно, Харьков, ул. Чернышевская, 8
+👕 Упаковываем в индивидуальные пакеты
+💡 Большие заказы — специальная упаковка
+При заказе от 1500 грн доставка НП бесплатная.</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>🎁 Индивидуальные подарки</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>подарок,именные,персональные,уникальные</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>🎁 Персональні футболки — ідеальний подарунок!
+💝 Іменні принти з фотографіями
+🎂 На дні народження, річниці, свята
+👨‍👩‍👧‍👦 Сімейні футболки з єдиним дизайном
+💕 Парні футболки для закоханих
+🎨 Унікальний дизайн тільки для вас
+📞 Обговоримо ідею — втілимо в життя!
+Зробимо подарунок незабутнім!</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>🎁 Персональные футболки — идеальный подарок!
+💝 Именные принты с фотографиями
+🎂 На дни рождения, годовщины, праздники
+👨‍👩‍👧‍👦 Семейные футболки с единым дизайном
+💕 Парные футболки для влюбленных
+🎨 Уникальный дизайн только для вас
+📞 Обсудим идею — воплотим в жизнь!
+Сделаем подарок незабываемым!</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>🎪 Футболки для мероприятий</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>мероприятия,события,фестиваль,концерт,конференция</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>🎪 Футболки для заходів — наша справа!
+🎭 Фестивалі, концерти, конференції
+🏃‍♂️ Спортивні змагання, марафони
+🎓 Випускні, корпоративи, тімбілдинги
+📅 Швидкі терміни для масових заходів
+🎨 Яскраві дизайни, що запам'ятовуються
+💡 Консультація по кількості та розмірах
+Зробимо ваш захід яскравішим!</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>🎪 Футболки для мероприятий — наше дело!
+🎭 Фестивали, концерты, конференции
+🏃‍♂️ Спортивные соревнования, марафоны
+🎓 Выпускные, корпоративы, тимбилдинги
+📅 Быстрые сроки для массовых мероприятий
+🎨 Яркие дизайны, которые запоминаются
+💡 Консультация по количеству и размерам
+Сделаем ваше мероприятие ярче!</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>футболки</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>💰Предоплата</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>оплата, предоплата, деньги</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>💳 Працюємо за передоплатою - це чесно і прозоро.
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>💳 Працюємо за передоплатою — це чесно і прозоро.
 🤝 Такий підхід дає нам змогу використовувати перевірені матеріали та відповідати за результат.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>💳 Работаем по предоплате — это честно и прозрачно.
 🤝 Такой подход позволяет нам использовать проверенные материалы и отвечать за результат.</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>9</v>
+      <c r="G19" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
